--- a/Excel/Excel Fundamentals for Data Analysis/Week 5/153 - Categorising data with VLOOKUP.xlsx
+++ b/Excel/Excel Fundamentals for Data Analysis/Week 5/153 - Categorising data with VLOOKUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\studio750\Documents\Data Wrangling MOOC\Course1\Week5\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azrai Mahadan\AI_ML_DL\Excel\Excel Fundamentals for Data Analysis\Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC3BAD-77E1-439B-9E81-5F1C6143D7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9384C5DD-7754-445E-AE2A-77742CCB2584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-4185" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{EC2FC403-3BD3-48C3-93CE-3A4A505B5772}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EC2FC403-3BD3-48C3-93CE-3A4A505B5772}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Invoice Statement" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Supplier Invoice Statement'!$A$1:$O$86</definedName>
+    <definedName name="Amount">'Supplier Invoice Statement'!$Q$2:$Q$1048576</definedName>
     <definedName name="Amount_Paid">'MC Invoice Report'!$J$5:$J$88</definedName>
     <definedName name="Bank_Details">'MC Invoice Report'!$H$5:$H$88</definedName>
     <definedName name="Cust_PO">'Supplier Invoice Statement'!$N$2:$N$86</definedName>
@@ -44,7 +45,7 @@
     <definedName name="Supplier_Code">'MC Invoice Report'!$B$5:$B$88</definedName>
     <definedName name="Supplier_Recon">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -61,9 +62,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="409">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -1295,6 +1294,9 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -1302,11 +1304,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1395,7 +1397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1504,11 +1506,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1519,23 +1530,23 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9"/>
@@ -1555,19 +1566,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1580,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,7 +1606,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1606,19 +1617,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent1" xfId="10" builtinId="29"/>
@@ -1634,33 +1646,7 @@
     <cellStyle name="Normal 43" xfId="6" xr:uid="{85A34433-3CC0-47BA-AADA-30C99D5927A5}"/>
     <cellStyle name="Title" xfId="9" builtinId="15"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <font>
         <b val="0"/>
@@ -1711,6 +1697,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1722,12 +1711,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1746,7 +1735,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1766,6 +1774,55 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1959,7 +2016,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2154,7 +2211,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2203,7 +2260,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2252,7 +2309,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2301,7 +2358,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2487,6 +2544,13 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2518,7 +2582,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2547,7 +2611,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2556,7 +2620,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3245,48 +3309,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C98715-8638-4E85-985D-29000BD877AC}" name="tbl_Supplier" displayName="tbl_Supplier" ref="A1:T86" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
-  <autoFilter ref="A1:T86" xr:uid="{BC9280C7-1BCF-417E-9715-5CFA4B9AAA00}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{52BFBEBF-3D49-40C6-99E9-4D1C2F78CBF5}" name="Document No" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{99102FB0-8F67-4019-A56C-7EFBD753E209}" name="Payment No." totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{44AC7DA0-D291-4B85-A414-4B79542A74F2}" name="Paid" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{30EE0024-C1B5-447C-A3A3-696AAEA80CC1}" name="Invoiced" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{14A178F1-0952-4DA8-84F9-870DCB1674A2}" name="Inv/cr" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{AC11F8AA-D099-4FC8-BAC7-F42F20B23C78}" name="Paid Amount" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{339B4D81-2202-4DC9-B465-2DD3F31A2CFD}" name="Customer PO" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{56A94A81-B7A6-4A3A-B36B-FFCFD09C31D7}" name="ABN" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{B8D412FA-1ED0-423C-B7B8-7CDDED11FED5}" name="Acct" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{D71A9FD3-FC17-40B1-B7EE-B919B78EC5F2}" name="Check" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{952BD9B9-AE9C-4F38-98EB-DD0A4DBC6031}" name="Cust Ref" dataDxfId="57" totalsRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C98715-8638-4E85-985D-29000BD877AC}" name="tbl_Supplier" displayName="tbl_Supplier" ref="A1:U86" headerRowBorderDxfId="83" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+  <autoFilter ref="A1:U86" xr:uid="{BC9280C7-1BCF-417E-9715-5CFA4B9AAA00}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{52BFBEBF-3D49-40C6-99E9-4D1C2F78CBF5}" name="Document No" totalsRowLabel="Total" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{99102FB0-8F67-4019-A56C-7EFBD753E209}" name="Payment No." totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{44AC7DA0-D291-4B85-A414-4B79542A74F2}" name="Paid" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{30EE0024-C1B5-447C-A3A3-696AAEA80CC1}" name="Invoiced" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{14A178F1-0952-4DA8-84F9-870DCB1674A2}" name="Inv/cr" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{AC11F8AA-D099-4FC8-BAC7-F42F20B23C78}" name="Paid Amount" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{339B4D81-2202-4DC9-B465-2DD3F31A2CFD}" name="Customer PO" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{56A94A81-B7A6-4A3A-B36B-FFCFD09C31D7}" name="ABN" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{B8D412FA-1ED0-423C-B7B8-7CDDED11FED5}" name="Acct" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{D71A9FD3-FC17-40B1-B7EE-B919B78EC5F2}" name="Check" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{952BD9B9-AE9C-4F38-98EB-DD0A4DBC6031}" name="Cust Ref" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>CONCATENATE(A2,"_",B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B18B6DDB-3CE2-4D93-A928-F69EFB1E53F6}" name="Bank Details" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="12" xr3:uid="{B18B6DDB-3CE2-4D93-A928-F69EFB1E53F6}" name="Bank Details" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>H2&amp;"-"&amp;I2&amp;"-"&amp;J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{DA0E0F2D-AA6B-41B0-9152-814F0201A8C5}" name="Inv Month" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="13" xr3:uid="{DA0E0F2D-AA6B-41B0-9152-814F0201A8C5}" name="Inv Month" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>LEFT(D2,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AC7135CB-0044-46B3-90AF-0E203A7D10CA}" name="Cust PO" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="14" xr3:uid="{AC7135CB-0044-46B3-90AF-0E203A7D10CA}" name="Cust PO" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>RIGHT(G2,6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7F8DB658-5E17-49E2-A66D-25D1A403B8B1}" name="Location" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="15" xr3:uid="{7F8DB658-5E17-49E2-A66D-25D1A403B8B1}" name="Location" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>MID(G2,4,FIND("-",G2,4)-4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{525BCB5D-00F1-45D8-A50B-4CB59DEAD8CC}" name="Type" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="16" xr3:uid="{525BCB5D-00F1-45D8-A50B-4CB59DEAD8CC}" name="Type" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>UPPER(TRIM(CLEAN(E2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4C714671-174F-46CE-990C-18D802F66171}" name="$ Amount" dataDxfId="45">
+    <tableColumn id="17" xr3:uid="{4C714671-174F-46CE-990C-18D802F66171}" name="$ Amount" dataDxfId="48">
       <calculatedColumnFormula>VALUE(SUBSTITUTE(SUBSTITUTE(F2,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{B1D4CB94-9310-427D-9840-D4BC7E47FE8C}" name="Invoice Date" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="18" xr3:uid="{B1D4CB94-9310-427D-9840-D4BC7E47FE8C}" name="Invoice Date" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>DATE(2020,MONTH(1&amp;M2),RIGHT(D2,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{6B972CFC-44ED-4FD9-B1C6-59234320EB20}" name="Paid Date" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="19" xr3:uid="{6B972CFC-44ED-4FD9-B1C6-59234320EB20}" name="Paid Date" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C2,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{179862E3-3B83-4981-98BB-B39D51453247}" name="Days to Pay" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="22" xr3:uid="{179862E3-3B83-4981-98BB-B39D51453247}" name="Days to Pay" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{8AE6301A-CC6C-40DB-A9A1-ABC89DE7AD00}" name="Column1" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -3294,41 +3361,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{638C14BD-F6A6-4A23-A3BE-7993CCEE9F34}" name="tbl_MC" displayName="tbl_MC" ref="A4:P88" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="A4:P88" xr:uid="{13A28ACC-331D-4225-A8C8-A8CA8F13F074}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{638C14BD-F6A6-4A23-A3BE-7993CCEE9F34}" name="tbl_MC" displayName="tbl_MC" ref="A4:Q88" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A4:Q88" xr:uid="{13A28ACC-331D-4225-A8C8-A8CA8F13F074}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O88">
     <sortCondition ref="C4:C88"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{C4858A8D-1AFD-4564-A6F5-1E15BC578168}" name="Payment Ref" totalsRowLabel="Total" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{FDAF40F1-3571-40E7-97D0-295F5543A0D2}" name="Supplier Code" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{6BA376D9-9C9D-43F3-B604-2F449277C862}" name="Payment No." totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{AA0FC72D-CBC0-422D-9B02-931656A68879}" name="Invoice Date" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{5CFD2BEA-8570-4A44-B859-40754C5BD32B}" name="Due Date" dataDxfId="26" totalsRowDxfId="25">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{C4858A8D-1AFD-4564-A6F5-1E15BC578168}" name="Payment Ref" totalsRowLabel="Total" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{FDAF40F1-3571-40E7-97D0-295F5543A0D2}" name="Supplier Code" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{6BA376D9-9C9D-43F3-B604-2F449277C862}" name="Payment No." totalsRowFunction="count" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{AA0FC72D-CBC0-422D-9B02-931656A68879}" name="Invoice Date" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{5CFD2BEA-8570-4A44-B859-40754C5BD32B}" name="Due Date" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>WORKDAY(EDATE(D5,1)-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F2410CEC-BF88-4FF7-8C79-F0CBEAA3BFF0}" name="Payment Date" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{A7DE618F-0DA4-4A14-A177-E2DFF261F133}" name="PO Number" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{84DA8E78-9128-41E3-8BD5-14DFB33A351A}" name="Bank Details" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{51E545FA-5C70-4AE7-80EF-C180215FEEEF}" name="Location" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{1CEBCCB8-D8DA-4915-B6E0-D4914173F61F}" name="Amount" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{97DE4D90-93E4-4F85-8AAC-99A777E863AB}" name="Invoice Month" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="6" xr3:uid="{F2410CEC-BF88-4FF7-8C79-F0CBEAA3BFF0}" name="Payment Date" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{A7DE618F-0DA4-4A14-A177-E2DFF261F133}" name="PO Number" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{84DA8E78-9128-41E3-8BD5-14DFB33A351A}" name="Bank Details" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{51E545FA-5C70-4AE7-80EF-C180215FEEEF}" name="Location" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{1CEBCCB8-D8DA-4915-B6E0-D4914173F61F}" name="Amount" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{97DE4D90-93E4-4F85-8AAC-99A777E863AB}" name="Invoice Month" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>TEXT(D5,"MMM")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{443F0B83-0AFA-4B3A-9A3D-5D56DF1DFDCA}" name="Invoice Day" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="12" xr3:uid="{443F0B83-0AFA-4B3A-9A3D-5D56DF1DFDCA}" name="Invoice Day" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>DAY(D5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{7B8E0170-2688-4461-8E4C-ED9FD8D9FB9F}" name="Over Due" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="17" xr3:uid="{7B8E0170-2688-4461-8E4C-ED9FD8D9FB9F}" name="Over Due" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(tbl_MC[[#This Row],[Payment Date]]&gt;tbl_MC[[#This Row],[Due Date]],"Yes","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7C978FE9-6F25-4604-AB86-0FE4634F7EA6}" name="Over Due By" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="13" xr3:uid="{7C978FE9-6F25-4604-AB86-0FE4634F7EA6}" name="Over Due By" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(tbl_MC[[#This Row],[Over Due]]="",0,NETWORKDAYS(tbl_MC[[#This Row],[Due Date]],tbl_MC[[#This Row],[Payment Date]],Holidays))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C50C5F2E-E3D5-4B6A-8C16-84681B1B9B92}" name="Late Charge" dataDxfId="1">
-      <calculatedColumnFormula>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{C50C5F2E-E3D5-4B6A-8C16-84681B1B9B92}" name="Late Charge" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7CFFC6D5-EDB0-4A5C-9179-D6C4CB2EE412}" name="Column1" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="14" xr3:uid="{7CFFC6D5-EDB0-4A5C-9179-D6C4CB2EE412}" name="Column1" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{D335DC93-A8E3-449C-AAAE-F476014EF840}" name="Column2" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
@@ -3658,39 +3728,39 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="20" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="22" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="20" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="23" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" style="20" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="25" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="13.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="20" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="20" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="22" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="23" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="22" max="22" width="3.33203125" style="20" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" style="20" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" style="25" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="18" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="18" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>3</v>
       </c>
@@ -3751,16 +3821,18 @@
       <c r="T1" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="U1"/>
+      <c r="U1" s="55" t="s">
+        <v>407</v>
+      </c>
       <c r="W1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="24">
+      <c r="X1" s="24" t="e">
         <f>SUM(tbl_Supplier[$ Amount])</f>
-        <v>46110.429999999993</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="45">
         <v>24671</v>
       </c>
@@ -3815,21 +3887,25 @@
         <f t="shared" ref="P2" si="5">UPPER(TRIM(CLEAN(E2)))</f>
         <v>INV</v>
       </c>
-      <c r="Q2" s="48">
+      <c r="Q2" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F2,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>398.5</v>
-      </c>
-      <c r="R2" s="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R2" s="49" t="e">
         <f t="shared" ref="R2" si="6">DATE(2020,MONTH(1&amp;M2),RIGHT(D2,2))</f>
-        <v>43892</v>
-      </c>
-      <c r="S2" s="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" s="49" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C2,2))</f>
-        <v>43917</v>
-      </c>
-      <c r="T2" s="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T2" s="50" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>25</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U2" t="e">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
+        <v>#N/A</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>190</v>
@@ -3839,7 +3915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>24673</v>
       </c>
@@ -3894,24 +3970,28 @@
         <f t="shared" ref="P3:P34" si="12">UPPER(TRIM(CLEAN(E3)))</f>
         <v>INV</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F3,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R3" s="49" t="e">
+        <f t="shared" ref="R3:R34" si="13">DATE(2020,MONTH(1&amp;M3),RIGHT(D3,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S3" s="49" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C3,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T3" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U3">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>742.5</v>
       </c>
-      <c r="R3" s="49">
-        <f t="shared" ref="R3:R34" si="13">DATE(2020,MONTH(1&amp;M3),RIGHT(D3,2))</f>
-        <v>43892</v>
-      </c>
-      <c r="S3" s="49">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C3,2))</f>
-        <v>43938</v>
-      </c>
-      <c r="T3" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="45">
         <v>24673</v>
       </c>
@@ -3966,26 +4046,30 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F4,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1021.02</v>
-      </c>
-      <c r="R4" s="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R4" s="49" t="e">
         <f t="shared" si="13"/>
-        <v>43922</v>
-      </c>
-      <c r="S4" s="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S4" s="51" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C4,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T4" s="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T4" s="50" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U4">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
+        <v>742.5</v>
       </c>
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="45">
         <v>24675</v>
       </c>
@@ -4040,26 +4124,30 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F5,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C5,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T5" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>409.53</v>
-      </c>
-      <c r="R5" s="49">
-        <f t="shared" si="13"/>
-        <v>43906</v>
-      </c>
-      <c r="S5" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C5,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T5" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>20</v>
       </c>
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="45">
         <v>24676</v>
       </c>
@@ -4114,26 +4202,30 @@
         <f t="shared" si="12"/>
         <v>CR</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F6,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C6,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T6" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>-234.96</v>
-      </c>
-      <c r="R6" s="49">
-        <f t="shared" si="13"/>
-        <v>43915</v>
-      </c>
-      <c r="S6" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C6,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T6" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>26</v>
       </c>
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="45">
         <v>24677</v>
       </c>
@@ -4188,26 +4280,30 @@
         <f t="shared" si="12"/>
         <v>CR</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F7,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S7" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C7,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T7" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>-450.12</v>
-      </c>
-      <c r="R7" s="49">
-        <f t="shared" si="13"/>
-        <v>43907</v>
-      </c>
-      <c r="S7" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C7,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T7" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>24</v>
       </c>
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="45">
         <v>24679</v>
       </c>
@@ -4262,26 +4358,30 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F8,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R8" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C8,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>114.18</v>
-      </c>
-      <c r="R8" s="49">
-        <f t="shared" si="13"/>
-        <v>43930</v>
-      </c>
-      <c r="S8" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C8,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T8" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>21</v>
       </c>
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="45">
         <v>24679</v>
       </c>
@@ -4336,25 +4436,29 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F9,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S9" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C9,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T9" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>930.93</v>
       </c>
-      <c r="R9" s="49">
-        <f t="shared" si="13"/>
-        <v>43913</v>
-      </c>
-      <c r="S9" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C9,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T9" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>38</v>
-      </c>
       <c r="X9" s="20"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="45">
         <v>24680</v>
       </c>
@@ -4409,25 +4513,29 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F10,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C10,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T10" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>466.29</v>
       </c>
-      <c r="R10" s="49">
-        <f t="shared" si="13"/>
-        <v>43917</v>
-      </c>
-      <c r="S10" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C10,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T10" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>18</v>
-      </c>
       <c r="X10" s="20"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="45">
         <v>24683</v>
       </c>
@@ -4482,24 +4590,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F11,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S11" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C11,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U11">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>222.42</v>
       </c>
-      <c r="R11" s="49">
-        <f t="shared" si="13"/>
-        <v>43912</v>
-      </c>
-      <c r="S11" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C11,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T11" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="45">
         <v>24685</v>
       </c>
@@ -4554,24 +4666,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F12,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S12" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C12,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T12" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>679.8</v>
       </c>
-      <c r="R12" s="49">
-        <f t="shared" si="13"/>
-        <v>43899</v>
-      </c>
-      <c r="S12" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C12,2))</f>
-        <v>43932</v>
-      </c>
-      <c r="T12" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="45">
         <v>24690</v>
       </c>
@@ -4626,24 +4742,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F13,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S13" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C13,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T13" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>171.93</v>
       </c>
-      <c r="R13" s="49">
-        <f t="shared" si="13"/>
-        <v>43925</v>
-      </c>
-      <c r="S13" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C13,2))</f>
-        <v>43944</v>
-      </c>
-      <c r="T13" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="45">
         <v>24693</v>
       </c>
@@ -4698,24 +4818,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F14,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S14" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C14,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T14" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U14">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>623.70000000000005</v>
       </c>
-      <c r="R14" s="49">
-        <f t="shared" si="13"/>
-        <v>43885</v>
-      </c>
-      <c r="S14" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C14,2))</f>
-        <v>43927</v>
-      </c>
-      <c r="T14" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="45">
         <v>24697</v>
       </c>
@@ -4770,24 +4894,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F15,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S15" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C15,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T15" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>221.1</v>
       </c>
-      <c r="R15" s="49">
-        <f t="shared" si="13"/>
-        <v>43919</v>
-      </c>
-      <c r="S15" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C15,2))</f>
-        <v>43945</v>
-      </c>
-      <c r="T15" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="45">
         <v>24698</v>
       </c>
@@ -4842,24 +4970,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q16" s="48">
+      <c r="Q16" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F16,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R16" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S16" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C16,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T16" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U16">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>393.36</v>
       </c>
-      <c r="R16" s="49">
-        <f t="shared" si="13"/>
-        <v>43930</v>
-      </c>
-      <c r="S16" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C16,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T16" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="45">
         <v>24699</v>
       </c>
@@ -4914,24 +5046,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F17,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R17" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S17" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C17,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>642.17999999999995</v>
       </c>
-      <c r="R17" s="49">
-        <f t="shared" si="13"/>
-        <v>43899</v>
-      </c>
-      <c r="S17" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C17,2))</f>
-        <v>43942</v>
-      </c>
-      <c r="T17" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="45">
         <v>24704</v>
       </c>
@@ -4986,24 +5122,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F18,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R18" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S18" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C18,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T18" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>499.95</v>
       </c>
-      <c r="R18" s="49">
-        <f t="shared" si="13"/>
-        <v>43909</v>
-      </c>
-      <c r="S18" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C18,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T18" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="45">
         <v>24707</v>
       </c>
@@ -5058,24 +5198,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F19,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S19" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C19,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T19" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U19">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>299.64</v>
       </c>
-      <c r="R19" s="49">
-        <f t="shared" si="13"/>
-        <v>43890</v>
-      </c>
-      <c r="S19" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C19,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T19" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="45">
         <v>24712</v>
       </c>
@@ -5130,24 +5274,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F20,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R20" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S20" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C20,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T20" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>312.83999999999997</v>
       </c>
-      <c r="R20" s="49">
-        <f t="shared" si="13"/>
-        <v>43912</v>
-      </c>
-      <c r="S20" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C20,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T20" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="45">
         <v>24717</v>
       </c>
@@ -5202,24 +5350,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F21,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R21" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S21" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C21,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T21" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>993.63</v>
       </c>
-      <c r="R21" s="49">
-        <f t="shared" si="13"/>
-        <v>43904</v>
-      </c>
-      <c r="S21" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C21,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T21" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="45">
         <v>24722</v>
       </c>
@@ -5274,24 +5426,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F22,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S22" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C22,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T22" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U22">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1053.69</v>
       </c>
-      <c r="R22" s="49">
-        <f t="shared" si="13"/>
-        <v>43917</v>
-      </c>
-      <c r="S22" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C22,2))</f>
-        <v>43922</v>
-      </c>
-      <c r="T22" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <v>24727</v>
       </c>
@@ -5346,24 +5502,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F23,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R23" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S23" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C23,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1047.75</v>
       </c>
-      <c r="R23" s="49">
-        <f t="shared" si="13"/>
-        <v>43929</v>
-      </c>
-      <c r="S23" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C23,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T23" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="45">
         <v>24730</v>
       </c>
@@ -5418,24 +5578,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F24,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R24" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S24" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C24,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T24" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U24">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1096.92</v>
       </c>
-      <c r="R24" s="49">
-        <f t="shared" si="13"/>
-        <v>43888</v>
-      </c>
-      <c r="S24" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C24,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T24" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="45">
         <v>24732</v>
       </c>
@@ -5490,24 +5654,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q25" s="48">
+      <c r="Q25" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F25,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R25" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S25" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C25,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T25" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U25">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>257.07</v>
       </c>
-      <c r="R25" s="49">
-        <f t="shared" si="13"/>
-        <v>43886</v>
-      </c>
-      <c r="S25" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C25,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T25" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="45">
         <v>24735</v>
       </c>
@@ -5562,24 +5730,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q26" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F26,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S26" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C26,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T26" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>215.49</v>
       </c>
-      <c r="R26" s="49">
-        <f t="shared" si="13"/>
-        <v>43945</v>
-      </c>
-      <c r="S26" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C26,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T26" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>24739</v>
       </c>
@@ -5634,24 +5806,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q27" s="48">
+      <c r="Q27" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F27,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S27" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C27,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>455.07</v>
       </c>
-      <c r="R27" s="49">
-        <f t="shared" si="13"/>
-        <v>43926</v>
-      </c>
-      <c r="S27" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C27,2))</f>
-        <v>43945</v>
-      </c>
-      <c r="T27" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <v>24740</v>
       </c>
@@ -5706,24 +5882,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q28" s="48">
+      <c r="Q28" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F28,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R28" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S28" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C28,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>711.81</v>
       </c>
-      <c r="R28" s="49">
-        <f t="shared" si="13"/>
-        <v>43923</v>
-      </c>
-      <c r="S28" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C28,2))</f>
-        <v>43930</v>
-      </c>
-      <c r="T28" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <v>24743</v>
       </c>
@@ -5778,24 +5958,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q29" s="48">
+      <c r="Q29" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F29,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S29" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C29,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T29" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U29">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>78.540000000000006</v>
       </c>
-      <c r="R29" s="49">
-        <f t="shared" si="13"/>
-        <v>43911</v>
-      </c>
-      <c r="S29" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C29,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T29" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>24746</v>
       </c>
@@ -5850,24 +6034,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q30" s="48">
+      <c r="Q30" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F30,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S30" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C30,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T30" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U30">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>302.61</v>
       </c>
-      <c r="R30" s="49">
-        <f t="shared" si="13"/>
-        <v>43892</v>
-      </c>
-      <c r="S30" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C30,2))</f>
-        <v>43927</v>
-      </c>
-      <c r="T30" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <v>24750</v>
       </c>
@@ -5922,24 +6110,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q31" s="48">
+      <c r="Q31" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F31,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S31" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C31,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T31" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U31">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>426.03</v>
       </c>
-      <c r="R31" s="49">
-        <f t="shared" si="13"/>
-        <v>43886</v>
-      </c>
-      <c r="S31" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C31,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T31" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="45">
         <v>24753</v>
       </c>
@@ -5994,24 +6186,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q32" s="48">
+      <c r="Q32" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F32,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S32" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C32,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T32" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>489.72</v>
       </c>
-      <c r="R32" s="49">
-        <f t="shared" si="13"/>
-        <v>43899</v>
-      </c>
-      <c r="S32" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C32,2))</f>
-        <v>43932</v>
-      </c>
-      <c r="T32" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="45">
         <v>24754</v>
       </c>
@@ -6066,24 +6262,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q33" s="48">
+      <c r="Q33" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F33,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S33" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C33,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T33" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U33">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>352.44</v>
       </c>
-      <c r="R33" s="49">
-        <f t="shared" si="13"/>
-        <v>43915</v>
-      </c>
-      <c r="S33" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C33,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T33" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="45">
         <v>24756</v>
       </c>
@@ -6138,24 +6338,28 @@
         <f t="shared" si="12"/>
         <v>INV</v>
       </c>
-      <c r="Q34" s="48">
+      <c r="Q34" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F34,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R34" s="49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S34" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C34,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T34" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U34">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>238.59</v>
       </c>
-      <c r="R34" s="49">
-        <f t="shared" si="13"/>
-        <v>43912</v>
-      </c>
-      <c r="S34" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C34,2))</f>
-        <v>43937</v>
-      </c>
-      <c r="T34" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="45">
         <v>24757</v>
       </c>
@@ -6210,24 +6414,28 @@
         <f t="shared" ref="P35:P66" si="19">UPPER(TRIM(CLEAN(E35)))</f>
         <v>INV</v>
       </c>
-      <c r="Q35" s="48">
+      <c r="Q35" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F35,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R35" s="49" t="e">
+        <f t="shared" ref="R35:R66" si="20">DATE(2020,MONTH(1&amp;M35),RIGHT(D35,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S35" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C35,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T35" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U35">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>549.12</v>
       </c>
-      <c r="R35" s="49">
-        <f t="shared" ref="R35:R66" si="20">DATE(2020,MONTH(1&amp;M35),RIGHT(D35,2))</f>
-        <v>43936</v>
-      </c>
-      <c r="S35" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C35,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T35" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="45">
         <v>24758</v>
       </c>
@@ -6282,24 +6490,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q36" s="48">
+      <c r="Q36" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F36,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R36" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S36" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C36,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T36" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U36">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>322.41000000000003</v>
       </c>
-      <c r="R36" s="49">
-        <f t="shared" si="20"/>
-        <v>43893</v>
-      </c>
-      <c r="S36" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C36,2))</f>
-        <v>43923</v>
-      </c>
-      <c r="T36" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
         <v>24759</v>
       </c>
@@ -6354,24 +6566,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q37" s="48">
+      <c r="Q37" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F37,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R37" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S37" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C37,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T37" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U37">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>644.82000000000005</v>
       </c>
-      <c r="R37" s="49">
-        <f t="shared" si="20"/>
-        <v>43892</v>
-      </c>
-      <c r="S37" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C37,2))</f>
-        <v>43934</v>
-      </c>
-      <c r="T37" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
         <v>24760</v>
       </c>
@@ -6426,24 +6642,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q38" s="48">
+      <c r="Q38" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F38,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R38" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S38" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C38,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T38" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U38">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>113.19</v>
       </c>
-      <c r="R38" s="49">
-        <f t="shared" si="20"/>
-        <v>43923</v>
-      </c>
-      <c r="S38" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C38,2))</f>
-        <v>43944</v>
-      </c>
-      <c r="T38" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
         <v>24761</v>
       </c>
@@ -6498,24 +6718,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q39" s="48">
+      <c r="Q39" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F39,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R39" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S39" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C39,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T39" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U39">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>449.13</v>
       </c>
-      <c r="R39" s="49">
-        <f t="shared" si="20"/>
-        <v>43941</v>
-      </c>
-      <c r="S39" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C39,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T39" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
         <v>24764</v>
       </c>
@@ -6570,24 +6794,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q40" s="48">
+      <c r="Q40" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F40,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R40" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S40" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C40,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T40" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U40">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>819.06</v>
       </c>
-      <c r="R40" s="49">
-        <f t="shared" si="20"/>
-        <v>43911</v>
-      </c>
-      <c r="S40" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C40,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T40" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <v>24767</v>
       </c>
@@ -6642,24 +6870,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q41" s="48">
+      <c r="Q41" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F41,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R41" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S41" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C41,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T41" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U41">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1019.04</v>
       </c>
-      <c r="R41" s="49">
-        <f t="shared" si="20"/>
-        <v>43880</v>
-      </c>
-      <c r="S41" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C41,2))</f>
-        <v>43924</v>
-      </c>
-      <c r="T41" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <v>24771</v>
       </c>
@@ -6714,24 +6946,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q42" s="48">
+      <c r="Q42" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F42,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R42" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S42" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C42,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T42" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U42">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>736.23</v>
       </c>
-      <c r="R42" s="49">
-        <f t="shared" si="20"/>
-        <v>43919</v>
-      </c>
-      <c r="S42" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C42,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T42" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="45">
         <v>24775</v>
       </c>
@@ -6786,24 +7022,28 @@
         <f t="shared" si="19"/>
         <v>CR</v>
       </c>
-      <c r="Q43" s="48">
+      <c r="Q43" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F43,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R43" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S43" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C43,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T43" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U43">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>-600.27</v>
       </c>
-      <c r="R43" s="49">
-        <f t="shared" si="20"/>
-        <v>43895</v>
-      </c>
-      <c r="S43" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C43,2))</f>
-        <v>43937</v>
-      </c>
-      <c r="T43" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <v>24779</v>
       </c>
@@ -6858,24 +7098,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q44" s="48">
+      <c r="Q44" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F44,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R44" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S44" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C44,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T44" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U44">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>480.81</v>
       </c>
-      <c r="R44" s="49">
-        <f t="shared" si="20"/>
-        <v>43907</v>
-      </c>
-      <c r="S44" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C44,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T44" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <v>24784</v>
       </c>
@@ -6930,24 +7174,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q45" s="48">
+      <c r="Q45" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F45,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R45" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S45" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C45,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T45" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U45">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>253.77</v>
       </c>
-      <c r="R45" s="49">
-        <f t="shared" si="20"/>
-        <v>43908</v>
-      </c>
-      <c r="S45" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C45,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T45" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>24788</v>
       </c>
@@ -7002,24 +7250,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q46" s="48">
+      <c r="Q46" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F46,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R46" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S46" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C46,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T46" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U46">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>442.86</v>
       </c>
-      <c r="R46" s="49">
-        <f t="shared" si="20"/>
-        <v>43906</v>
-      </c>
-      <c r="S46" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C46,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T46" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>24792</v>
       </c>
@@ -7074,24 +7326,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q47" s="48">
+      <c r="Q47" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F47,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R47" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S47" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C47,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T47" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U47">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>630.96</v>
       </c>
-      <c r="R47" s="49">
-        <f t="shared" si="20"/>
-        <v>43901</v>
-      </c>
-      <c r="S47" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C47,2))</f>
-        <v>43924</v>
-      </c>
-      <c r="T47" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>24793</v>
       </c>
@@ -7146,24 +7402,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q48" s="48">
+      <c r="Q48" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F48,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R48" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S48" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C48,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T48" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U48">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>821.37</v>
       </c>
-      <c r="R48" s="49">
-        <f t="shared" si="20"/>
-        <v>43895</v>
-      </c>
-      <c r="S48" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C48,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T48" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <v>24795</v>
       </c>
@@ -7218,24 +7478,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q49" s="48">
+      <c r="Q49" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F49,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R49" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S49" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C49,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T49" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U49">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>950.73</v>
       </c>
-      <c r="R49" s="49">
-        <f t="shared" si="20"/>
-        <v>43888</v>
-      </c>
-      <c r="S49" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C49,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T49" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>24798</v>
       </c>
@@ -7290,24 +7554,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q50" s="48">
+      <c r="Q50" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F50,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R50" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S50" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C50,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T50" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U50">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>956.34</v>
       </c>
-      <c r="R50" s="49">
-        <f t="shared" si="20"/>
-        <v>43921</v>
-      </c>
-      <c r="S50" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C50,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T50" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>24801</v>
       </c>
@@ -7362,24 +7630,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q51" s="48">
+      <c r="Q51" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F51,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R51" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S51" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C51,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T51" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U51">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1094.28</v>
       </c>
-      <c r="R51" s="49">
-        <f t="shared" si="20"/>
-        <v>43917</v>
-      </c>
-      <c r="S51" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C51,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T51" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <v>24803</v>
       </c>
@@ -7434,24 +7706,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q52" s="48">
+      <c r="Q52" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F52,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R52" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S52" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C52,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T52" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U52">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>628.98</v>
       </c>
-      <c r="R52" s="49">
-        <f t="shared" si="20"/>
-        <v>43908</v>
-      </c>
-      <c r="S52" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C52,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T52" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>24808</v>
       </c>
@@ -7506,24 +7782,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q53" s="48">
+      <c r="Q53" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F53,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R53" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S53" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C53,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T53" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U53">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1058.31</v>
       </c>
-      <c r="R53" s="49">
-        <f t="shared" si="20"/>
-        <v>43929</v>
-      </c>
-      <c r="S53" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C53,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T53" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <v>24813</v>
       </c>
@@ -7578,24 +7858,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q54" s="48">
+      <c r="Q54" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F54,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R54" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S54" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C54,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T54" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U54">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>705.54</v>
       </c>
-      <c r="R54" s="49">
-        <f t="shared" si="20"/>
-        <v>43921</v>
-      </c>
-      <c r="S54" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C54,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T54" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <v>24815</v>
       </c>
@@ -7650,24 +7934,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q55" s="48">
+      <c r="Q55" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F55,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R55" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S55" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C55,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T55" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U55">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>138.6</v>
       </c>
-      <c r="R55" s="49">
-        <f t="shared" si="20"/>
-        <v>43935</v>
-      </c>
-      <c r="S55" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C55,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T55" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <v>24819</v>
       </c>
@@ -7722,24 +8010,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q56" s="48">
+      <c r="Q56" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F56,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R56" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S56" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C56,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T56" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U56">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>417.12</v>
       </c>
-      <c r="R56" s="49">
-        <f t="shared" si="20"/>
-        <v>43914</v>
-      </c>
-      <c r="S56" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C56,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T56" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="45">
         <v>24822</v>
       </c>
@@ -7794,24 +8086,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q57" s="48">
+      <c r="Q57" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F57,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R57" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S57" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C57,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T57" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U57">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>422.73</v>
       </c>
-      <c r="R57" s="49">
-        <f t="shared" si="20"/>
-        <v>43913</v>
-      </c>
-      <c r="S57" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C57,2))</f>
-        <v>43939</v>
-      </c>
-      <c r="T57" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>24824</v>
       </c>
@@ -7866,24 +8162,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q58" s="48">
+      <c r="Q58" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F58,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R58" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S58" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C58,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T58" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U58">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1061.94</v>
       </c>
-      <c r="R58" s="49">
-        <f t="shared" si="20"/>
-        <v>43908</v>
-      </c>
-      <c r="S58" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C58,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T58" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="45">
         <v>24825</v>
       </c>
@@ -7938,24 +8238,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q59" s="48">
+      <c r="Q59" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F59,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R59" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S59" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C59,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T59" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U59">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>602.58000000000004</v>
       </c>
-      <c r="R59" s="49">
-        <f t="shared" si="20"/>
-        <v>43912</v>
-      </c>
-      <c r="S59" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C59,2))</f>
-        <v>43927</v>
-      </c>
-      <c r="T59" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="45">
         <v>24830</v>
       </c>
@@ -8010,24 +8314,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q60" s="48">
+      <c r="Q60" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F60,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R60" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S60" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C60,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T60" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U60">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>132.66</v>
       </c>
-      <c r="R60" s="49">
-        <f t="shared" si="20"/>
-        <v>43927</v>
-      </c>
-      <c r="S60" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C60,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T60" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <v>24831</v>
       </c>
@@ -8082,24 +8390,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q61" s="48">
+      <c r="Q61" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F61,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R61" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S61" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C61,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T61" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U61">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>56.43</v>
       </c>
-      <c r="R61" s="49">
-        <f t="shared" si="20"/>
-        <v>43896</v>
-      </c>
-      <c r="S61" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C61,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T61" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <v>24833</v>
       </c>
@@ -8154,24 +8466,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q62" s="48">
+      <c r="Q62" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F62,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R62" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S62" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C62,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T62" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U62">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>511.83</v>
       </c>
-      <c r="R62" s="49">
-        <f t="shared" si="20"/>
-        <v>43881</v>
-      </c>
-      <c r="S62" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C62,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T62" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <v>24837</v>
       </c>
@@ -8226,24 +8542,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q63" s="48">
+      <c r="Q63" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F63,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R63" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S63" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C63,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T63" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U63">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>361.02</v>
       </c>
-      <c r="R63" s="49">
-        <f t="shared" si="20"/>
-        <v>43916</v>
-      </c>
-      <c r="S63" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C63,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T63" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <v>24838</v>
       </c>
@@ -8298,24 +8618,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q64" s="48">
+      <c r="Q64" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F64,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R64" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S64" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C64,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T64" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U64">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>668.25</v>
       </c>
-      <c r="R64" s="49">
-        <f t="shared" si="20"/>
-        <v>43932</v>
-      </c>
-      <c r="S64" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C64,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T64" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <v>24842</v>
       </c>
@@ -8370,24 +8694,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q65" s="48">
+      <c r="Q65" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F65,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R65" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S65" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C65,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T65" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U65">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>126.72</v>
       </c>
-      <c r="R65" s="49">
-        <f t="shared" si="20"/>
-        <v>43914</v>
-      </c>
-      <c r="S65" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C65,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T65" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <v>24847</v>
       </c>
@@ -8442,24 +8770,28 @@
         <f t="shared" si="19"/>
         <v>INV</v>
       </c>
-      <c r="Q66" s="48">
+      <c r="Q66" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F66,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R66" s="49" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S66" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C66,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T66" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U66">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1000.23</v>
       </c>
-      <c r="R66" s="49">
-        <f t="shared" si="20"/>
-        <v>43905</v>
-      </c>
-      <c r="S66" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C66,2))</f>
-        <v>43943</v>
-      </c>
-      <c r="T66" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <v>24851</v>
       </c>
@@ -8514,24 +8846,28 @@
         <f t="shared" ref="P67:P86" si="26">UPPER(TRIM(CLEAN(E67)))</f>
         <v>INV</v>
       </c>
-      <c r="Q67" s="48">
+      <c r="Q67" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F67,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R67" s="49" t="e">
+        <f t="shared" ref="R67:R86" si="27">DATE(2020,MONTH(1&amp;M67),RIGHT(D67,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S67" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C67,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T67" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U67">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>948.75</v>
       </c>
-      <c r="R67" s="49">
-        <f t="shared" ref="R67:R86" si="27">DATE(2020,MONTH(1&amp;M67),RIGHT(D67,2))</f>
-        <v>43918</v>
-      </c>
-      <c r="S67" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C67,2))</f>
-        <v>43939</v>
-      </c>
-      <c r="T67" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="45">
         <v>24854</v>
       </c>
@@ -8586,24 +8922,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q68" s="48">
+      <c r="Q68" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F68,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R68" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S68" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C68,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T68" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U68">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>446.49</v>
       </c>
-      <c r="R68" s="49">
-        <f t="shared" si="27"/>
-        <v>43904</v>
-      </c>
-      <c r="S68" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C68,2))</f>
-        <v>43937</v>
-      </c>
-      <c r="T68" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="45">
         <v>24857</v>
       </c>
@@ -8658,24 +8998,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q69" s="48">
+      <c r="Q69" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F69,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R69" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S69" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C69,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T69" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U69">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>242.22</v>
       </c>
-      <c r="R69" s="49">
-        <f t="shared" si="27"/>
-        <v>43933</v>
-      </c>
-      <c r="S69" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C69,2))</f>
-        <v>43940</v>
-      </c>
-      <c r="T69" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
         <v>24861</v>
       </c>
@@ -8730,24 +9074,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q70" s="48">
+      <c r="Q70" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F70,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R70" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S70" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C70,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T70" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U70">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>600.6</v>
       </c>
-      <c r="R70" s="49">
-        <f t="shared" si="27"/>
-        <v>43887</v>
-      </c>
-      <c r="S70" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C70,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T70" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="45">
         <v>24863</v>
       </c>
@@ -8802,24 +9150,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q71" s="48">
+      <c r="Q71" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F71,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R71" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S71" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C71,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T71" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U71">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>546.80999999999995</v>
       </c>
-      <c r="R71" s="49">
-        <f t="shared" si="27"/>
-        <v>43905</v>
-      </c>
-      <c r="S71" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C71,2))</f>
-        <v>43942</v>
-      </c>
-      <c r="T71" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="45">
         <v>24866</v>
       </c>
@@ -8874,24 +9226,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q72" s="48">
+      <c r="Q72" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F72,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R72" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S72" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C72,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T72" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U72">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>840.51</v>
       </c>
-      <c r="R72" s="49">
-        <f t="shared" si="27"/>
-        <v>43900</v>
-      </c>
-      <c r="S72" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C72,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T72" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="45">
         <v>24870</v>
       </c>
@@ -8946,24 +9302,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q73" s="48">
+      <c r="Q73" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F73,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R73" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S73" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C73,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T73" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U73">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>603.57000000000005</v>
       </c>
-      <c r="R73" s="49">
-        <f t="shared" si="27"/>
-        <v>43923</v>
-      </c>
-      <c r="S73" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C73,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T73" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="45">
         <v>24873</v>
       </c>
@@ -9018,24 +9378,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q74" s="48">
+      <c r="Q74" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F74,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R74" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S74" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C74,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T74" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U74">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>816.75</v>
       </c>
-      <c r="R74" s="49">
-        <f t="shared" si="27"/>
-        <v>43914</v>
-      </c>
-      <c r="S74" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C74,2))</f>
-        <v>43944</v>
-      </c>
-      <c r="T74" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="45">
         <v>24875</v>
       </c>
@@ -9090,24 +9454,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q75" s="48">
+      <c r="Q75" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F75,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R75" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S75" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C75,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T75" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U75">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1065.57</v>
       </c>
-      <c r="R75" s="49">
-        <f t="shared" si="27"/>
-        <v>43912</v>
-      </c>
-      <c r="S75" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C75,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T75" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="45">
         <v>24876</v>
       </c>
@@ -9162,24 +9530,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q76" s="48">
+      <c r="Q76" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F76,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R76" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S76" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C76,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T76" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U76">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>523.38</v>
       </c>
-      <c r="R76" s="49">
-        <f t="shared" si="27"/>
-        <v>43919</v>
-      </c>
-      <c r="S76" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C76,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T76" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="45">
         <v>24877</v>
       </c>
@@ -9234,24 +9606,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q77" s="48">
+      <c r="Q77" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F77,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R77" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S77" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C77,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T77" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U77">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>650.42999999999995</v>
       </c>
-      <c r="R77" s="49">
-        <f t="shared" si="27"/>
-        <v>43890</v>
-      </c>
-      <c r="S77" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C77,2))</f>
-        <v>43932</v>
-      </c>
-      <c r="T77" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="45">
         <v>24878</v>
       </c>
@@ -9306,24 +9682,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q78" s="48">
+      <c r="Q78" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F78,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R78" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S78" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C78,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T78" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U78">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>809.49</v>
       </c>
-      <c r="R78" s="49">
-        <f t="shared" si="27"/>
-        <v>43934</v>
-      </c>
-      <c r="S78" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C78,2))</f>
-        <v>43943</v>
-      </c>
-      <c r="T78" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="45">
         <v>24880</v>
       </c>
@@ -9378,24 +9758,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q79" s="48">
+      <c r="Q79" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F79,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R79" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S79" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C79,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T79" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U79">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>424.38</v>
       </c>
-      <c r="R79" s="49">
-        <f t="shared" si="27"/>
-        <v>43901</v>
-      </c>
-      <c r="S79" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C79,2))</f>
-        <v>43943</v>
-      </c>
-      <c r="T79" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="45">
         <v>24882</v>
       </c>
@@ -9450,24 +9834,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q80" s="48">
+      <c r="Q80" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F80,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R80" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S80" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C80,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T80" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U80">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>955.68</v>
       </c>
-      <c r="R80" s="49">
-        <f t="shared" si="27"/>
-        <v>43933</v>
-      </c>
-      <c r="S80" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C80,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T80" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="45">
         <v>24885</v>
       </c>
@@ -9522,24 +9910,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q81" s="48">
+      <c r="Q81" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F81,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R81" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S81" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C81,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T81" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U81">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>764.28</v>
       </c>
-      <c r="R81" s="49">
-        <f t="shared" si="27"/>
-        <v>43942</v>
-      </c>
-      <c r="S81" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C81,2))</f>
-        <v>43950</v>
-      </c>
-      <c r="T81" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="45">
         <v>24887</v>
       </c>
@@ -9594,24 +9986,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q82" s="48">
+      <c r="Q82" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F82,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R82" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S82" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C82,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T82" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U82">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>335.61</v>
       </c>
-      <c r="R82" s="49">
-        <f t="shared" si="27"/>
-        <v>43897</v>
-      </c>
-      <c r="S82" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C82,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T82" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="45">
         <v>24891</v>
       </c>
@@ -9666,24 +10062,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q83" s="48">
+      <c r="Q83" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F83,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R83" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S83" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C83,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T83" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U83">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>763.29</v>
       </c>
-      <c r="R83" s="49">
-        <f t="shared" si="27"/>
-        <v>43898</v>
-      </c>
-      <c r="S83" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C83,2))</f>
-        <v>43940</v>
-      </c>
-      <c r="T83" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="45">
         <v>24893</v>
       </c>
@@ -9738,24 +10138,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q84" s="48">
+      <c r="Q84" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F84,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R84" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S84" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C84,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T84" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U84">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>446.16</v>
       </c>
-      <c r="R84" s="49">
-        <f t="shared" si="27"/>
-        <v>43919</v>
-      </c>
-      <c r="S84" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C84,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T84" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="45">
         <v>24898</v>
       </c>
@@ -9810,24 +10214,28 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q85" s="48">
+      <c r="Q85" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F85,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R85" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S85" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C85,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T85" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U85">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>1032.24</v>
       </c>
-      <c r="R85" s="49">
-        <f t="shared" si="27"/>
-        <v>43898</v>
-      </c>
-      <c r="S85" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C85,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T85" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="45">
         <v>24902</v>
       </c>
@@ -9882,21 +10290,25 @@
         <f t="shared" si="26"/>
         <v>INV</v>
       </c>
-      <c r="Q86" s="48">
+      <c r="Q86" s="48" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F86,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R86" s="49" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S86" s="51" t="e">
+        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C86,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T86" s="50" t="e">
+        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U86">
+        <f>VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,)</f>
         <v>533.28</v>
-      </c>
-      <c r="R86" s="49">
-        <f t="shared" si="27"/>
-        <v>43915</v>
-      </c>
-      <c r="S86" s="51">
-        <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C86,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T86" s="50">
-        <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -9914,43 +10326,43 @@
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="11.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="5" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="3.44140625" customWidth="1"/>
+    <col min="19" max="20" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="13">
         <f ca="1">TODAY()</f>
-        <v>43879</v>
+        <v>44575</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="13"/>
@@ -9965,12 +10377,12 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="K3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>132</v>
       </c>
@@ -10016,12 +10428,14 @@
       <c r="O4" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="53" t="s">
         <v>407</v>
       </c>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q4" s="53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>44</v>
       </c>
@@ -10056,7 +10470,7 @@
       </c>
       <c r="K5" s="35" t="str">
         <f t="shared" ref="K5:K36" si="1">TEXT(D5,"MMM")</f>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L5" s="37">
         <f t="shared" ref="L5:L36" si="2">DAY(D5)</f>
@@ -10071,17 +10485,21 @@
         <v>10</v>
       </c>
       <c r="O5" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>26.73</v>
-      </c>
-      <c r="P5" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P5" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
+      <c r="Q5" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
       <c r="U5" s="27"/>
       <c r="V5" s="26"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>402</v>
       </c>
@@ -10115,7 +10533,7 @@
       </c>
       <c r="K6" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L6" s="37">
         <f t="shared" si="2"/>
@@ -10130,15 +10548,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="53" t="str">
+      <c r="P6" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q6" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
@@ -10172,7 +10594,7 @@
       </c>
       <c r="K7" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L7" s="37">
         <f t="shared" si="2"/>
@@ -10187,15 +10609,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="53" t="str">
+      <c r="P7" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q7" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>50</v>
       </c>
@@ -10229,7 +10655,7 @@
       </c>
       <c r="K8" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L8" s="37">
         <f t="shared" si="2"/>
@@ -10244,16 +10670,20 @@
         <v>0</v>
       </c>
       <c r="O8" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="53" t="str">
+      <c r="P8" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
+      <c r="Q8" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
       <c r="V8" s="27"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>51</v>
       </c>
@@ -10287,7 +10717,7 @@
       </c>
       <c r="K9" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L9" s="37">
         <f t="shared" si="2"/>
@@ -10302,15 +10732,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="53" t="str">
+      <c r="P9" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q9" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>52</v>
       </c>
@@ -10344,7 +10778,7 @@
       </c>
       <c r="K10" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L10" s="37">
         <f t="shared" si="2"/>
@@ -10359,15 +10793,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="53" t="str">
+      <c r="P10" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q10" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>53</v>
       </c>
@@ -10401,7 +10839,7 @@
       </c>
       <c r="K11" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L11" s="37">
         <f t="shared" si="2"/>
@@ -10416,15 +10854,19 @@
         <v>6</v>
       </c>
       <c r="O11" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P11" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q11" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>54</v>
       </c>
@@ -10458,7 +10900,7 @@
       </c>
       <c r="K12" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L12" s="37">
         <f t="shared" si="2"/>
@@ -10473,15 +10915,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="53" t="str">
+      <c r="P12" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q12" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>55</v>
       </c>
@@ -10515,7 +10961,7 @@
       </c>
       <c r="K13" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L13" s="37">
         <f t="shared" si="2"/>
@@ -10530,15 +10976,19 @@
         <v>4</v>
       </c>
       <c r="O13" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>3.2028479999999999</v>
-      </c>
-      <c r="P13" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P13" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q13" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>56</v>
       </c>
@@ -10572,7 +11022,7 @@
       </c>
       <c r="K14" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L14" s="37">
         <f t="shared" si="2"/>
@@ -10587,15 +11037,19 @@
         <v>1</v>
       </c>
       <c r="O14" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>2.4472799999999997</v>
-      </c>
-      <c r="P14" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P14" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q14" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>57</v>
       </c>
@@ -10629,7 +11083,7 @@
       </c>
       <c r="K15" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L15" s="37">
         <f t="shared" si="2"/>
@@ -10644,15 +11098,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="53" t="str">
+      <c r="P15" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q15" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>58</v>
       </c>
@@ -10686,7 +11144,7 @@
       </c>
       <c r="K16" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L16" s="37">
         <f t="shared" si="2"/>
@@ -10701,15 +11159,19 @@
         <v>10</v>
       </c>
       <c r="O16" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P16" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P16" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q16" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>59</v>
       </c>
@@ -10743,7 +11205,7 @@
       </c>
       <c r="K17" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L17" s="37">
         <f t="shared" si="2"/>
@@ -10758,15 +11220,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="53" t="str">
+      <c r="P17" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q17" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>60</v>
       </c>
@@ -10800,7 +11266,7 @@
       </c>
       <c r="K18" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L18" s="37">
         <f t="shared" si="2"/>
@@ -10815,15 +11281,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="53" t="str">
+      <c r="P18" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q18" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>61</v>
       </c>
@@ -10857,7 +11327,7 @@
       </c>
       <c r="K19" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L19" s="37">
         <f t="shared" si="2"/>
@@ -10872,15 +11342,19 @@
         <v>7</v>
       </c>
       <c r="O19" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P19" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P19" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q19" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>62</v>
       </c>
@@ -10914,7 +11388,7 @@
       </c>
       <c r="K20" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L20" s="37">
         <f t="shared" si="2"/>
@@ -10929,19 +11403,23 @@
         <v>9</v>
       </c>
       <c r="O20" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P20" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P20" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="S20" s="52" t="s">
+      <c r="Q20" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="T20" s="52"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T20" s="54"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>63</v>
       </c>
@@ -10975,7 +11453,7 @@
       </c>
       <c r="K21" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L21" s="37">
         <f t="shared" si="2"/>
@@ -10990,13 +11468,17 @@
         <v>7</v>
       </c>
       <c r="O21" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P21" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P21" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
+      <c r="Q21" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
       <c r="S21" s="28">
         <v>0</v>
       </c>
@@ -11004,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>64</v>
       </c>
@@ -11038,7 +11520,7 @@
       </c>
       <c r="K22" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L22" s="37">
         <f t="shared" si="2"/>
@@ -11053,13 +11535,17 @@
         <v>7</v>
       </c>
       <c r="O22" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>7.8835679999999986</v>
-      </c>
-      <c r="P22" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P22" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
+      <c r="Q22" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
       <c r="S22" s="28">
         <v>1</v>
       </c>
@@ -11067,7 +11553,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>65</v>
       </c>
@@ -11101,7 +11587,7 @@
       </c>
       <c r="K23" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L23" s="37">
         <f t="shared" si="2"/>
@@ -11116,13 +11602,17 @@
         <v>0</v>
       </c>
       <c r="O23" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="53" t="str">
+      <c r="P23" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
+      <c r="Q23" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
       <c r="S23" s="28">
         <v>5</v>
       </c>
@@ -11130,7 +11620,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>66</v>
       </c>
@@ -11164,7 +11654,7 @@
       </c>
       <c r="K24" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L24" s="37">
         <f t="shared" si="2"/>
@@ -11179,13 +11669,17 @@
         <v>0</v>
       </c>
       <c r="O24" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="53" t="str">
+      <c r="P24" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
+      <c r="Q24" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
       <c r="S24" s="28">
         <v>10</v>
       </c>
@@ -11193,7 +11687,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>67</v>
       </c>
@@ -11227,7 +11721,7 @@
       </c>
       <c r="K25" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L25" s="37">
         <f t="shared" si="2"/>
@@ -11242,13 +11736,17 @@
         <v>0</v>
       </c>
       <c r="O25" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="53" t="str">
+      <c r="P25" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
+      <c r="Q25" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
       <c r="S25" s="28">
         <v>15</v>
       </c>
@@ -11256,7 +11754,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>68</v>
       </c>
@@ -11290,7 +11788,7 @@
       </c>
       <c r="K26" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L26" s="37">
         <f t="shared" si="2"/>
@@ -11305,15 +11803,19 @@
         <v>9</v>
       </c>
       <c r="O26" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>35.540208</v>
-      </c>
-      <c r="P26" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P26" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q26" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>69</v>
       </c>
@@ -11347,7 +11849,7 @@
       </c>
       <c r="K27" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L27" s="37">
         <f t="shared" si="2"/>
@@ -11362,15 +11864,19 @@
         <v>10</v>
       </c>
       <c r="O27" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>9.2545199999999994</v>
-      </c>
-      <c r="P27" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P27" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q27" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>70</v>
       </c>
@@ -11404,7 +11910,7 @@
       </c>
       <c r="K28" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L28" s="37">
         <f t="shared" si="2"/>
@@ -11419,15 +11925,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="53" t="str">
+      <c r="P28" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q28" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>71</v>
       </c>
@@ -11461,7 +11971,7 @@
       </c>
       <c r="K29" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L29" s="37">
         <f t="shared" si="2"/>
@@ -11476,15 +11986,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="53" t="str">
+      <c r="P29" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q29" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>72</v>
       </c>
@@ -11518,7 +12032,7 @@
       </c>
       <c r="K30" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L30" s="37">
         <f t="shared" si="2"/>
@@ -11533,15 +12047,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="53" t="str">
+      <c r="P30" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q30" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>73</v>
       </c>
@@ -11575,7 +12093,7 @@
       </c>
       <c r="K31" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L31" s="37">
         <f t="shared" si="2"/>
@@ -11590,15 +12108,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="53" t="str">
+      <c r="P31" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q31" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>74</v>
       </c>
@@ -11632,7 +12154,7 @@
       </c>
       <c r="K32" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L32" s="37">
         <f t="shared" si="2"/>
@@ -11647,15 +12169,19 @@
         <v>3</v>
       </c>
       <c r="O32" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P32" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P32" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>75</v>
       </c>
@@ -11689,7 +12215,7 @@
       </c>
       <c r="K33" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L33" s="37">
         <f t="shared" si="2"/>
@@ -11704,15 +12230,19 @@
         <v>12</v>
       </c>
       <c r="O33" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P33" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P33" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>76</v>
       </c>
@@ -11746,7 +12276,7 @@
       </c>
       <c r="K34" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L34" s="37">
         <f t="shared" si="2"/>
@@ -11761,15 +12291,19 @@
         <v>1</v>
       </c>
       <c r="O34" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>1.7629920000000001</v>
-      </c>
-      <c r="P34" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P34" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>77</v>
       </c>
@@ -11803,7 +12337,7 @@
       </c>
       <c r="K35" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L35" s="37">
         <f t="shared" si="2"/>
@@ -11818,15 +12352,19 @@
         <v>2</v>
       </c>
       <c r="O35" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>2.5375679999999998</v>
-      </c>
-      <c r="P35" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P35" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>78</v>
       </c>
@@ -11860,7 +12398,7 @@
       </c>
       <c r="K36" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L36" s="37">
         <f t="shared" si="2"/>
@@ -11875,15 +12413,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="53" t="str">
+      <c r="P36" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>79</v>
       </c>
@@ -11917,7 +12459,7 @@
       </c>
       <c r="K37" s="35" t="str">
         <f t="shared" ref="K37:K68" si="4">TEXT(D37,"MMM")</f>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L37" s="37">
         <f t="shared" ref="L37:L68" si="5">DAY(D37)</f>
@@ -11932,15 +12474,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="53" t="str">
+      <c r="P37" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>80</v>
       </c>
@@ -11974,7 +12520,7 @@
       </c>
       <c r="K38" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L38" s="37">
         <f t="shared" si="5"/>
@@ -11989,15 +12535,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="53" t="str">
+      <c r="P38" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>81</v>
       </c>
@@ -12031,7 +12581,7 @@
       </c>
       <c r="K39" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L39" s="37">
         <f t="shared" si="5"/>
@@ -12046,15 +12596,19 @@
         <v>6</v>
       </c>
       <c r="O39" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P39" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P39" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>82</v>
       </c>
@@ -12088,7 +12642,7 @@
       </c>
       <c r="K40" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L40" s="37">
         <f t="shared" si="5"/>
@@ -12103,15 +12657,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="53" t="str">
+      <c r="P40" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>83</v>
       </c>
@@ -12145,7 +12703,7 @@
       </c>
       <c r="K41" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L41" s="37">
         <f t="shared" si="5"/>
@@ -12160,15 +12718,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="53" t="str">
+      <c r="P41" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>84</v>
       </c>
@@ -12202,7 +12764,7 @@
       </c>
       <c r="K42" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L42" s="37">
         <f t="shared" si="5"/>
@@ -12217,15 +12779,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P42" s="53" t="str">
+      <c r="P42" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>85</v>
       </c>
@@ -12259,7 +12825,7 @@
       </c>
       <c r="K43" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L43" s="37">
         <f t="shared" si="5"/>
@@ -12274,15 +12840,19 @@
         <v>12</v>
       </c>
       <c r="O43" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>44.022527999999994</v>
-      </c>
-      <c r="P43" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P43" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>86</v>
       </c>
@@ -12316,7 +12886,7 @@
       </c>
       <c r="K44" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L44" s="37">
         <f t="shared" si="5"/>
@@ -12331,15 +12901,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P44" s="53" t="str">
+      <c r="P44" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
@@ -12373,7 +12947,7 @@
       </c>
       <c r="K45" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L45" s="37">
         <f t="shared" si="5"/>
@@ -12388,15 +12962,19 @@
         <v>7</v>
       </c>
       <c r="O45" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P45" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P45" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>88</v>
       </c>
@@ -12430,7 +13008,7 @@
       </c>
       <c r="K46" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L46" s="37">
         <f t="shared" si="5"/>
@@ -12445,15 +13023,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P46" s="53" t="str">
+      <c r="P46" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>89</v>
       </c>
@@ -12487,7 +13069,7 @@
       </c>
       <c r="K47" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L47" s="37">
         <f t="shared" si="5"/>
@@ -12502,15 +13084,19 @@
         <v>6</v>
       </c>
       <c r="O47" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5.4814319999999999</v>
-      </c>
-      <c r="P47" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P47" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>90</v>
       </c>
@@ -12544,7 +13130,7 @@
       </c>
       <c r="K48" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L48" s="37">
         <f t="shared" si="5"/>
@@ -12559,15 +13145,19 @@
         <v>9</v>
       </c>
       <c r="O48" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P48" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P48" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>91</v>
       </c>
@@ -12601,7 +13191,7 @@
       </c>
       <c r="K49" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L49" s="37">
         <f t="shared" si="5"/>
@@ -12616,15 +13206,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="53" t="str">
+      <c r="P49" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>92</v>
       </c>
@@ -12658,7 +13252,7 @@
       </c>
       <c r="K50" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L50" s="37">
         <f t="shared" si="5"/>
@@ -12673,15 +13267,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P50" s="53" t="str">
+      <c r="P50" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>93</v>
       </c>
@@ -12715,7 +13313,7 @@
       </c>
       <c r="K51" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L51" s="37">
         <f t="shared" si="5"/>
@@ -12730,15 +13328,19 @@
         <v>8</v>
       </c>
       <c r="O51" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P51" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P51" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>94</v>
       </c>
@@ -12772,7 +13374,7 @@
       </c>
       <c r="K52" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L52" s="37">
         <f t="shared" si="5"/>
@@ -12787,15 +13389,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P52" s="53" t="str">
+      <c r="P52" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>95</v>
       </c>
@@ -12829,7 +13435,7 @@
       </c>
       <c r="K53" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L53" s="37">
         <f t="shared" si="5"/>
@@ -12844,15 +13450,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P53" s="53" t="str">
+      <c r="P53" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>96</v>
       </c>
@@ -12886,7 +13496,7 @@
       </c>
       <c r="K54" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L54" s="37">
         <f t="shared" si="5"/>
@@ -12901,15 +13511,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P54" s="53" t="str">
+      <c r="P54" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>97</v>
       </c>
@@ -12943,7 +13557,7 @@
       </c>
       <c r="K55" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L55" s="37">
         <f t="shared" si="5"/>
@@ -12958,15 +13572,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P55" s="53" t="str">
+      <c r="P55" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>98</v>
       </c>
@@ -13000,7 +13618,7 @@
       </c>
       <c r="K56" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L56" s="37">
         <f t="shared" si="5"/>
@@ -13015,15 +13633,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="53" t="str">
+      <c r="P56" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>99</v>
       </c>
@@ -13057,7 +13679,7 @@
       </c>
       <c r="K57" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L57" s="37">
         <f t="shared" si="5"/>
@@ -13072,15 +13694,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P57" s="53" t="str">
+      <c r="P57" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>100</v>
       </c>
@@ -13114,7 +13740,7 @@
       </c>
       <c r="K58" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L58" s="37">
         <f t="shared" si="5"/>
@@ -13129,15 +13755,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P58" s="53" t="str">
+      <c r="P58" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>101</v>
       </c>
@@ -13171,7 +13801,7 @@
       </c>
       <c r="K59" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L59" s="37">
         <f t="shared" si="5"/>
@@ -13186,15 +13816,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P59" s="53" t="str">
+      <c r="P59" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>102</v>
       </c>
@@ -13228,7 +13862,7 @@
       </c>
       <c r="K60" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L60" s="37">
         <f t="shared" si="5"/>
@@ -13243,15 +13877,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P60" s="53" t="str">
+      <c r="P60" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>103</v>
       </c>
@@ -13285,7 +13923,7 @@
       </c>
       <c r="K61" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L61" s="37">
         <f t="shared" si="5"/>
@@ -13300,15 +13938,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P61" s="53" t="str">
+      <c r="P61" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>104</v>
       </c>
@@ -13342,7 +13984,7 @@
       </c>
       <c r="K62" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L62" s="37">
         <f t="shared" si="5"/>
@@ -13357,15 +13999,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P62" s="53" t="str">
+      <c r="P62" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>105</v>
       </c>
@@ -13399,7 +14045,7 @@
       </c>
       <c r="K63" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L63" s="37">
         <f t="shared" si="5"/>
@@ -13414,15 +14060,19 @@
         <v>0</v>
       </c>
       <c r="O63" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P63" s="53" t="str">
+      <c r="P63" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>106</v>
       </c>
@@ -13456,7 +14106,7 @@
       </c>
       <c r="K64" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L64" s="37">
         <f t="shared" si="5"/>
@@ -13471,15 +14121,19 @@
         <v>11</v>
       </c>
       <c r="O64" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>20.268467999999999</v>
-      </c>
-      <c r="P64" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P64" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>107</v>
       </c>
@@ -13513,7 +14167,7 @@
       </c>
       <c r="K65" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L65" s="37">
         <f t="shared" si="5"/>
@@ -13528,15 +14182,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P65" s="53" t="str">
+      <c r="P65" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>108</v>
       </c>
@@ -13570,7 +14228,7 @@
       </c>
       <c r="K66" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L66" s="37">
         <f t="shared" si="5"/>
@@ -13585,15 +14243,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P66" s="53" t="str">
+      <c r="P66" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>109</v>
       </c>
@@ -13627,7 +14289,7 @@
       </c>
       <c r="K67" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L67" s="37">
         <f t="shared" si="5"/>
@@ -13642,15 +14304,19 @@
         <v>0</v>
       </c>
       <c r="O67" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P67" s="53" t="str">
+      <c r="P67" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>110</v>
       </c>
@@ -13684,7 +14350,7 @@
       </c>
       <c r="K68" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L68" s="37">
         <f t="shared" si="5"/>
@@ -13699,15 +14365,19 @@
         <v>6</v>
       </c>
       <c r="O68" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P68" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P68" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>111</v>
       </c>
@@ -13741,7 +14411,7 @@
       </c>
       <c r="K69" s="35" t="str">
         <f t="shared" ref="K69:K88" si="7">TEXT(D69,"MMM")</f>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L69" s="37">
         <f t="shared" ref="L69:L88" si="8">DAY(D69)</f>
@@ -13756,15 +14426,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P69" s="53" t="str">
+      <c r="P69" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>112</v>
       </c>
@@ -13798,7 +14472,7 @@
       </c>
       <c r="K70" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L70" s="37">
         <f t="shared" si="8"/>
@@ -13813,15 +14487,19 @@
         <v>3</v>
       </c>
       <c r="O70" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P70" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P70" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>113</v>
       </c>
@@ -13855,7 +14533,7 @@
       </c>
       <c r="K71" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L71" s="37">
         <f t="shared" si="8"/>
@@ -13870,15 +14548,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P71" s="53" t="str">
+      <c r="P71" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>114</v>
       </c>
@@ -13912,7 +14594,7 @@
       </c>
       <c r="K72" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L72" s="37">
         <f t="shared" si="8"/>
@@ -13927,15 +14609,19 @@
         <v>10</v>
       </c>
       <c r="O72" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P72" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P72" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>115</v>
       </c>
@@ -13969,7 +14655,7 @@
       </c>
       <c r="K73" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L73" s="37">
         <f t="shared" si="8"/>
@@ -13984,15 +14670,19 @@
         <v>5</v>
       </c>
       <c r="O73" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P73" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P73" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>116</v>
       </c>
@@ -14026,7 +14716,7 @@
       </c>
       <c r="K74" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L74" s="37">
         <f t="shared" si="8"/>
@@ -14041,15 +14731,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P74" s="53" t="str">
+      <c r="P74" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>117</v>
       </c>
@@ -14083,7 +14777,7 @@
       </c>
       <c r="K75" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L75" s="37">
         <f t="shared" si="8"/>
@@ -14098,15 +14792,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P75" s="53" t="str">
+      <c r="P75" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>118</v>
       </c>
@@ -14140,7 +14838,7 @@
       </c>
       <c r="K76" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L76" s="37">
         <f t="shared" si="8"/>
@@ -14155,15 +14853,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P76" s="53" t="str">
+      <c r="P76" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>119</v>
       </c>
@@ -14197,7 +14899,7 @@
       </c>
       <c r="K77" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L77" s="37">
         <f t="shared" si="8"/>
@@ -14212,15 +14914,19 @@
         <v>7</v>
       </c>
       <c r="O77" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>26.852363999999998</v>
-      </c>
-      <c r="P77" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P77" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>120</v>
       </c>
@@ -14254,7 +14960,7 @@
       </c>
       <c r="K78" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L78" s="37">
         <f t="shared" si="8"/>
@@ -14269,15 +14975,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P78" s="53" t="str">
+      <c r="P78" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>121</v>
       </c>
@@ -14311,7 +15021,7 @@
       </c>
       <c r="K79" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Feb</v>
+        <v>2</v>
       </c>
       <c r="L79" s="37">
         <f t="shared" si="8"/>
@@ -14326,15 +15036,19 @@
         <v>9</v>
       </c>
       <c r="O79" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P79" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P79" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>122</v>
       </c>
@@ -14368,7 +15082,7 @@
       </c>
       <c r="K80" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L80" s="37">
         <f t="shared" si="8"/>
@@ -14383,15 +15097,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P80" s="53" t="str">
+      <c r="P80" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>123</v>
       </c>
@@ -14425,7 +15143,7 @@
       </c>
       <c r="K81" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L81" s="37">
         <f t="shared" si="8"/>
@@ -14440,15 +15158,19 @@
         <v>7</v>
       </c>
       <c r="O81" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P81" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P81" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>124</v>
       </c>
@@ -14482,7 +15204,7 @@
       </c>
       <c r="K82" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L82" s="37">
         <f t="shared" si="8"/>
@@ -14497,15 +15219,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P82" s="53" t="str">
+      <c r="P82" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>125</v>
       </c>
@@ -14539,7 +15265,7 @@
       </c>
       <c r="K83" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Apr</v>
+        <v>4</v>
       </c>
       <c r="L83" s="37">
         <f t="shared" si="8"/>
@@ -14554,15 +15280,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P83" s="53" t="str">
+      <c r="P83" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>126</v>
       </c>
@@ -14596,7 +15326,7 @@
       </c>
       <c r="K84" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L84" s="37">
         <f t="shared" si="8"/>
@@ -14611,15 +15341,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P84" s="53" t="str">
+      <c r="P84" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>127</v>
       </c>
@@ -14653,7 +15387,7 @@
       </c>
       <c r="K85" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L85" s="37">
         <f t="shared" si="8"/>
@@ -14668,15 +15402,19 @@
         <v>6</v>
       </c>
       <c r="O85" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>16.487064</v>
-      </c>
-      <c r="P85" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P85" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
         <v>128</v>
       </c>
@@ -14710,7 +15448,7 @@
       </c>
       <c r="K86" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L86" s="37">
         <f t="shared" si="8"/>
@@ -14725,15 +15463,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P86" s="53" t="str">
+      <c r="P86" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>129</v>
       </c>
@@ -14767,7 +15509,7 @@
       </c>
       <c r="K87" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L87" s="37">
         <f t="shared" si="8"/>
@@ -14782,15 +15524,19 @@
         <v>7</v>
       </c>
       <c r="O87" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
-        <v>5</v>
-      </c>
-      <c r="P87" s="53" t="str">
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P87" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>130</v>
       </c>
@@ -14824,7 +15570,7 @@
       </c>
       <c r="K88" s="35" t="str">
         <f t="shared" si="7"/>
-        <v>Mar</v>
+        <v>3</v>
       </c>
       <c r="L88" s="37">
         <f t="shared" si="8"/>
@@ -14839,12 +15585,16 @@
         <v>0</v>
       </c>
       <c r="O88" s="36">
-        <f>IF(tbl_MC[[#This Row],[Over Due]]="",0,IF(tbl_MC[[#This Row],[Location]]="Sydney",tbl_MC[[#This Row],[Amount]]*tbl_MC[[#This Row],[Over Due By]]*Penalty_Rate,Flat_Rate))</f>
+        <f>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</f>
         <v>0</v>
       </c>
-      <c r="P88" s="53" t="str">
+      <c r="P88" s="52" t="str">
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
+      </c>
+      <c r="Q88" s="52" t="e">
+        <f>VLOOKUP(Payment_Ref,tbl_Supplier[],21)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -14856,7 +15606,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B5:N88">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>$I5=$K$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14889,32 +15639,32 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="e">
         <f>SUM('Supplier Invoice Statement'!Q2:Q86)</f>
-        <v>46110.429999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>399</v>
       </c>
@@ -14923,16 +15673,16 @@
         <v>45711.929999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="e">
         <f>B3-B4</f>
-        <v>398.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>188</v>
       </c>
@@ -14949,7 +15699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -14967,10 +15717,10 @@
       </c>
       <c r="E8" s="9">
         <f>SUMIFS(Late_Charge,Location,$A8)</f>
-        <v>202.47084000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -14988,7 +15738,7 @@
       </c>
       <c r="E9" s="9">
         <f>SUMIFS(Late_Charge,Location,$A9)</f>
-        <v>90</v>
+        <v>108.39999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15007,22 +15757,22 @@
       <selection activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="4"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>153</v>
       </c>
@@ -15033,7 +15783,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>43831</v>
       </c>
@@ -15045,7 +15795,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>43857</v>
       </c>
@@ -15057,7 +15807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>43931</v>
       </c>
@@ -15069,7 +15819,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>43932</v>
       </c>
@@ -15081,7 +15831,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>43933</v>
       </c>
@@ -15093,7 +15843,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>43934</v>
       </c>
@@ -15105,7 +15855,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>43946</v>
       </c>
@@ -15117,7 +15867,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>43990</v>
       </c>
@@ -15129,7 +15879,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>44109</v>
       </c>
@@ -15141,7 +15891,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>44190</v>
       </c>
@@ -15153,7 +15903,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>44191</v>
       </c>
@@ -15165,7 +15915,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>44193</v>
       </c>
@@ -15177,13 +15927,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>184</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>185</v>
       </c>
@@ -15192,7 +15942,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -15200,7 +15950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -15208,7 +15958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -15216,7 +15966,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -15224,7 +15974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -15232,7 +15982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -15240,7 +15990,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -15248,7 +15998,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -15256,7 +16006,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -15264,7 +16014,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -15272,7 +16022,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -15280,7 +16030,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
@@ -15288,7 +16038,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -15296,7 +16046,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>17</v>
       </c>
@@ -15304,7 +16054,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>187</v>
       </c>
